--- a/xlsx/s_EnemyData.xlsx
+++ b/xlsx/s_EnemyData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\PrivateWork\MultiGreedyFish\MultiGreedyFish\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4112CA8C-4525-4D4B-BCD4-4B05B63265B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE87B3C-B21E-419F-8575-D36360B586F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3765" yWindow="2250" windowWidth="21615" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2865" yWindow="930" windowWidth="21615" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1269,7 +1269,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/xlsx/s_EnemyData.xlsx
+++ b/xlsx/s_EnemyData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\PrivateWork\MultiGreedyFish\MultiGreedyFish\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE87B3C-B21E-419F-8575-D36360B586F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029B21EC-71F0-487D-ADDB-6C8C74037599}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2865" yWindow="930" windowWidth="21615" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="1170" windowWidth="28830" windowHeight="7800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1266,10 +1266,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1323,7 +1323,7 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D3" s="5">
         <v>5</v>
@@ -1332,10 +1332,10 @@
         <v>100</v>
       </c>
       <c r="F3" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>100</v>
       </c>
       <c r="F4" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1368,7 +1368,7 @@
         <v>100</v>
       </c>
       <c r="F5" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1386,7 +1386,7 @@
         <v>100</v>
       </c>
       <c r="F6" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1404,7 +1404,7 @@
         <v>100</v>
       </c>
       <c r="F7" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1422,7 +1422,7 @@
         <v>100</v>
       </c>
       <c r="F8" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1440,7 +1440,7 @@
         <v>100</v>
       </c>
       <c r="F9" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1458,7 +1458,7 @@
         <v>100</v>
       </c>
       <c r="F10" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1476,6 +1476,24 @@
         <v>100</v>
       </c>
       <c r="F11" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5">
+        <v>5</v>
+      </c>
+      <c r="E12" s="5">
+        <v>100</v>
+      </c>
+      <c r="F12" s="5">
         <v>9</v>
       </c>
     </row>

--- a/xlsx/s_EnemyData.xlsx
+++ b/xlsx/s_EnemyData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\PrivateWork\MultiGreedyFish\MultiGreedyFish\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029B21EC-71F0-487D-ADDB-6C8C74037599}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3321FAC3-A24A-4729-BAB1-5FA4AC2DE266}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="1170" windowWidth="28830" windowHeight="7800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="390" windowWidth="28830" windowHeight="10830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1266,10 +1266,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1326,10 +1326,10 @@
         <v>4</v>
       </c>
       <c r="D3" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E3" s="5">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="F3" s="5">
         <v>0</v>
@@ -1341,19 +1341,19 @@
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5">
+        <v>5</v>
+      </c>
+      <c r="D4" s="5">
         <v>0</v>
       </c>
-      <c r="D4" s="5">
+      <c r="E4" s="5">
         <v>5</v>
       </c>
-      <c r="E4" s="5">
-        <v>100</v>
-      </c>
       <c r="F4" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>100</v>
       </c>
       <c r="F5" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1386,7 +1386,7 @@
         <v>100</v>
       </c>
       <c r="F6" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1404,7 +1404,7 @@
         <v>100</v>
       </c>
       <c r="F7" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1422,7 +1422,7 @@
         <v>100</v>
       </c>
       <c r="F8" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1440,7 +1440,7 @@
         <v>100</v>
       </c>
       <c r="F9" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1458,7 +1458,7 @@
         <v>100</v>
       </c>
       <c r="F10" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1476,7 +1476,7 @@
         <v>100</v>
       </c>
       <c r="F11" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1494,6 +1494,24 @@
         <v>100</v>
       </c>
       <c r="F12" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5">
+        <v>0</v>
+      </c>
+      <c r="D13" s="5">
+        <v>5</v>
+      </c>
+      <c r="E13" s="5">
+        <v>100</v>
+      </c>
+      <c r="F13" s="5">
         <v>9</v>
       </c>
     </row>

--- a/xlsx/s_EnemyData.xlsx
+++ b/xlsx/s_EnemyData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\PrivateWork\MultiGreedyFish\MultiGreedyFish\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3321FAC3-A24A-4729-BAB1-5FA4AC2DE266}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1F81D4-C18A-4A18-8B79-EB12214D05F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="390" windowWidth="28830" windowHeight="10830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5085" yWindow="2595" windowWidth="19095" windowHeight="10830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>ID</t>
   </si>
@@ -37,6 +37,10 @@
   </si>
   <si>
     <t>fishCountMax</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fishLevel</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1266,22 +1270,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="8.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.875" style="1"/>
+    <col min="4" max="4" width="12.375" style="1" customWidth="1"/>
+    <col min="5" max="6" width="14" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1289,17 +1294,20 @@
       <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -1308,16 +1316,19 @@
         <v>0</v>
       </c>
       <c r="D2" s="5">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5">
         <v>5</v>
       </c>
-      <c r="E2" s="5">
+      <c r="F2" s="5">
         <v>100</v>
       </c>
-      <c r="F2" s="5">
+      <c r="G2" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1326,16 +1337,19 @@
         <v>4</v>
       </c>
       <c r="D3" s="5">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5">
         <v>2</v>
       </c>
-      <c r="E3" s="5">
+      <c r="F3" s="5">
         <v>40</v>
       </c>
-      <c r="F3" s="5">
+      <c r="G3" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -1344,16 +1358,19 @@
         <v>5</v>
       </c>
       <c r="D4" s="5">
+        <v>5</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5">
+        <v>5</v>
+      </c>
+      <c r="G4" s="5">
         <v>0</v>
       </c>
-      <c r="E4" s="5">
-        <v>5</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
     </row>
-    <row r="5" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -1362,16 +1379,19 @@
         <v>0</v>
       </c>
       <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5">
         <v>5</v>
       </c>
-      <c r="E5" s="5">
+      <c r="F5" s="5">
         <v>100</v>
       </c>
-      <c r="F5" s="5">
+      <c r="G5" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -1380,16 +1400,19 @@
         <v>0</v>
       </c>
       <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5">
         <v>5</v>
       </c>
-      <c r="E6" s="5">
+      <c r="F6" s="5">
         <v>100</v>
       </c>
-      <c r="F6" s="5">
+      <c r="G6" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -1398,16 +1421,19 @@
         <v>0</v>
       </c>
       <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5">
         <v>5</v>
       </c>
-      <c r="E7" s="5">
+      <c r="F7" s="5">
         <v>100</v>
       </c>
-      <c r="F7" s="5">
+      <c r="G7" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -1416,16 +1442,19 @@
         <v>0</v>
       </c>
       <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5">
         <v>5</v>
       </c>
-      <c r="E8" s="5">
+      <c r="F8" s="5">
         <v>100</v>
       </c>
-      <c r="F8" s="5">
+      <c r="G8" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -1434,16 +1463,19 @@
         <v>0</v>
       </c>
       <c r="D9" s="5">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5">
         <v>5</v>
       </c>
-      <c r="E9" s="5">
+      <c r="F9" s="5">
         <v>100</v>
       </c>
-      <c r="F9" s="5">
+      <c r="G9" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -1452,16 +1484,19 @@
         <v>0</v>
       </c>
       <c r="D10" s="5">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5">
         <v>5</v>
       </c>
-      <c r="E10" s="5">
+      <c r="F10" s="5">
         <v>100</v>
       </c>
-      <c r="F10" s="5">
+      <c r="G10" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -1470,16 +1505,19 @@
         <v>0</v>
       </c>
       <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5">
         <v>5</v>
       </c>
-      <c r="E11" s="5">
+      <c r="F11" s="5">
         <v>100</v>
       </c>
-      <c r="F11" s="5">
+      <c r="G11" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -1488,16 +1526,19 @@
         <v>0</v>
       </c>
       <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5">
         <v>5</v>
       </c>
-      <c r="E12" s="5">
+      <c r="F12" s="5">
         <v>100</v>
       </c>
-      <c r="F12" s="5">
+      <c r="G12" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -1506,12 +1547,15 @@
         <v>0</v>
       </c>
       <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5">
         <v>5</v>
       </c>
-      <c r="E13" s="5">
+      <c r="F13" s="5">
         <v>100</v>
       </c>
-      <c r="F13" s="5">
+      <c r="G13" s="5">
         <v>9</v>
       </c>
     </row>
